--- a/data/trans_dic/P34_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 30,11</t>
+          <t>14,83; 30,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 31,13</t>
+          <t>19,04; 31,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 27,56</t>
+          <t>17,26; 27,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,88; 39,24</t>
+          <t>10,75; 25,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 15,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 18,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,57</t>
+          <t>7,96; 18,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,99; 27,8</t>
+          <t>11,01; 19,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 19,8</t>
+          <t>10,72; 17,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,01</t>
+          <t>8,58; 19,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12,71; 21,97</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 23,15</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,79; 20,66</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,27; 19,29</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,92; 39,61</t>
+          <t>23,86; 34,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 33,42</t>
+          <t>23,25; 32,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,4; 32,74</t>
+          <t>23,92; 32,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,08; 35,72</t>
+          <t>19,97; 33,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 25,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 23,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 25,48</t>
+          <t>17,02; 25,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,28; 29,34</t>
+          <t>16,9; 24,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,31; 31,11</t>
+          <t>18,28; 25,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,47</t>
+          <t>13,41; 21,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 27,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,79; 31,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21,81; 28,53</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 26,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>22,09; 27,9</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 25,85</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 22,83</t>
+          <t>12,39; 25,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 24,23</t>
+          <t>13,92; 23,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 20,29</t>
+          <t>12,45; 19,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 23,92</t>
+          <t>9,53; 22,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 21,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 19,74</t>
+          <t>12,84; 21,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 21,05</t>
+          <t>12,84; 19,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,36; 20,42</t>
+          <t>13,6; 19,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,16</t>
+          <t>10,14; 17,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 18,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 20,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13,77; 21,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 19,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>13,89; 18,82</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 17,96</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>26,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,8; 29,89</t>
+          <t>28,11; 38,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,72; 27,99</t>
+          <t>21,85; 33,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,51; 25,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,03; 32,47</t>
+          <t>19,55; 31,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 19,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 19,85</t>
+          <t>16,08; 22,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 25,19</t>
+          <t>13,76; 21,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 24,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 22,97</t>
+          <t>13,08; 20,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 22,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,79; 27,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>23,12; 29,46</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19,27; 26,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 24,44</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15,24%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>20,3%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24,85; 30,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22,48; 27,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 25,6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18,71; 25,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 20,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 19,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,19; 19,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 17,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>21,13; 24,78</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 22,48</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 22,04</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>16,39; 20,43</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>75401</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>131870</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>159013</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>76655</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51299</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96808</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>126663</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>83664</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>126699</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>228678</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>285677</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>160319</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50295; 101845</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100941; 165360</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>125738; 202561</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>47210; 112496</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33228; 76066</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70313; 124919</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96368; 159953</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54650; 126727</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>96112; 166218</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>190178; 270646</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>240626; 336141</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>121243; 207469</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>272285</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>335816</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>451775</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>274876</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>209360</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>242799</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>320930</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>181073</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>481645</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>578615</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>772705</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>455949</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>221829; 322521</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>280582; 392340</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>387250; 524556</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>213289; 355102</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>170178; 254589</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>207509; 297243</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>275322; 378318</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>144883; 230722</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>420898; 550637</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>510010; 647495</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>690174; 871692</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>383663; 555439</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>128040</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>150513</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>172060</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>119788</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>128871</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>149908</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>191927</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>119738</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>256911</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>300421</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>363987</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>239527</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88639; 183740</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>117702; 195877</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>135814; 215949</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>79219; 184300</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>98744; 166538</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>120873; 184414</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>158173; 230707</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90375; 154373</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>204526; 316905</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>252097; 355416</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>313146; 424192</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>190077; 309301</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>476184</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>232332</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>264178</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>268998</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>131610</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>162029</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>745182</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>363942</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>426207</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>409605; 562337</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>187924; 288347</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>211019; 338293</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>225243; 321606</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>104757; 161704</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>127721; 202810</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>660698; 842060</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>312477; 422610</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>361163; 502507</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>638.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>951911</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>850531</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>782849</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>735497</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>658527</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>621125</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>639520</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>546504</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1610438</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1471656</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1422368</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1282001</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>855249; 1065744</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>774063; 938858</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>704197; 880118</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>639347; 862670</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>582105; 731322</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>557242; 693350</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>577812; 709091</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>478884; 619905</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1485221; 1742147</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1365234; 1576130</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1312331; 1544112</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1147571; 1430384</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
